--- a/urutan.xlsx
+++ b/urutan.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Load-vs-capacity-planning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DB03A-9C74-794A-A45D-E36BA85DE246}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8445"/>
+    <workbookView xWindow="9780" yWindow="1860" windowWidth="24200" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>DL Need</t>
   </si>
@@ -58,17 +64,29 @@
   </si>
   <si>
     <t>Total Productivity</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>umh A+B</t>
+  </si>
+  <si>
+    <t>cap - orde</t>
+  </si>
+  <si>
+    <t>rumus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -137,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -152,32 +170,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Currency 2" xfId="4"/>
+    <cellStyle name="Currency 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 3" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Percent 2" xfId="2"/>
-    <cellStyle name="Percent 2 2" xfId="5"/>
-    <cellStyle name="Percent 2 3" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Percent 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -224,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +282,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,6 +334,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,18 +527,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -521,11 +585,15 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>30</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -542,13 +610,14 @@
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="2">
-        <f>B3</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="0">C3</f>
@@ -575,19 +644,23 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14">
+        <v>15000</v>
+      </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="10">
         <f>B4</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" ref="K4:O4" si="1">C4</f>
@@ -620,7 +693,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
@@ -641,13 +716,15 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="19">
         <f>J5-J4</f>
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="K6" s="19">
         <f t="shared" ref="K6:O6" si="2">K5-K4</f>
@@ -680,20 +757,22 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="7" t="e">
+      <c r="J7" s="7">
         <f>(J5/J3)/2</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7" t="e">
-        <f t="shared" ref="K7:O7" si="3">(K5/K3)/2</f>
+        <f>(K5/K3)/2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K7:O7" si="3">(L5/L3)/2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="7" t="e">
@@ -728,11 +807,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="13" t="e">
-        <f t="shared" ref="K8:O8" si="4">K4/K5*100%</f>
+        <f>K4/K5*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K8:O8" si="4">L4/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="13" t="e">
@@ -764,7 +843,7 @@
       </c>
       <c r="J9" s="10">
         <f>J4-J5</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" ref="K9:O9" si="5">K4-K5</f>
@@ -806,11 +885,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="7" t="e">
-        <f t="shared" ref="K10:O10" si="6">((K9/K12)*K3)/3600</f>
+        <f>((K9/K12)*K3)/3600</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K10:O10" si="6">((L9/L12)*L3)/3600</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="7" t="e">
@@ -864,14 +943,14 @@
       </c>
       <c r="J13" s="4">
         <f>(7/60)*J3*2*J2</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" ref="K13:O13" si="7">(7/60)*K3*2*K2</f>
+        <f>(7/60)*K3*2*K2</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K13:O13" si="7">(7/60)*L3*2*L2</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
@@ -891,9 +970,9 @@
       <c r="I14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="3" t="e">
+      <c r="J14" s="3">
         <f>J7/(J2+J12+J13)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="e">
         <f t="shared" ref="K14:O14" si="8">K7/(K2+K12+K13)</f>
@@ -922,24 +1001,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
